--- a/biology/Médecine/Examen_ionisant/Examen_ionisant.xlsx
+++ b/biology/Médecine/Examen_ionisant/Examen_ionisant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un examen ionisant est un examen clinique qui soumet le corps à des rayonnements ionisants. Il s'agit principalement des examens d'Imagerie médicale. Ils doivent se faire dans le respect des règles de radioprotection.
 En France, seuls les Manipulateur en électroradiologie médicale et les médecins radiologues sont autorisés à effectuer ces examens.
-exemples d'examens ionisants [1] :
+exemples d'examens ionisants  :
 radiographie classique
 mammographie
 tomodensitométrie (scanner, ou CT-scan)
